--- a/Übung 6/Aufgabe 8 - Umwandlung.xlsx
+++ b/Übung 6/Aufgabe 8 - Umwandlung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egon\dbpgit\bti-db-ss18\Übung 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\dbp\bti-db-ss18\Übung 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="72">
   <si>
     <t>Vorlesung</t>
   </si>
@@ -503,7 +503,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -689,7 +689,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -953,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1413,13 +1413,10 @@
       <c r="E24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1439,13 +1436,10 @@
       <c r="E25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="4">
-        <v>4</v>
-      </c>
-      <c r="H25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="4">
+      <c r="H25" s="4">
         <v>4</v>
       </c>
     </row>
@@ -1465,13 +1459,10 @@
       <c r="E26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="4">
-        <v>4</v>
-      </c>
-      <c r="H26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="4">
+      <c r="H26" s="4">
         <v>6</v>
       </c>
     </row>
@@ -1491,13 +1482,10 @@
       <c r="E27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="4">
-        <v>4</v>
-      </c>
-      <c r="H27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="4">
+      <c r="H27" s="4">
         <v>4</v>
       </c>
     </row>
@@ -1517,9 +1505,6 @@
       <c r="E28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="4">
-        <v>6</v>
-      </c>
     </row>
     <row r="29" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
@@ -1537,13 +1522,10 @@
       <c r="E29" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="4">
-        <v>6</v>
-      </c>
-      <c r="H29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1563,10 +1545,7 @@
       <c r="E30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="4">
-        <v>6</v>
-      </c>
-      <c r="H30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1586,9 +1565,6 @@
       <c r="E31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="4">
-        <v>4</v>
-      </c>
     </row>
     <row r="32" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
@@ -1606,9 +1582,6 @@
       <c r="E32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="4">
-        <v>4</v>
-      </c>
     </row>
     <row r="33" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
@@ -1626,9 +1599,6 @@
       <c r="E33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="4">
-        <v>4</v>
-      </c>
     </row>
     <row r="34" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
@@ -1645,9 +1615,6 @@
       </c>
       <c r="E34" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="F34" s="4">
-        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
